--- a/ig/ch-epl/StructureDefinition-ch-idmp-documentreference.xlsx
+++ b/ig/ch-epl/StructureDefinition-ch-idmp-documentreference.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T14:35:11+00:00</t>
+    <t>2025-12-11T12:35:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -563,7 +563,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Appointment|AppointmentResponse|CarePlan|Claim|CommunicationRequest|Contract|CoverageEligibilityRequest|DeviceRequest|EnrollmentRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|RequestOrchestration|ServiceRequest|SupplyRequest|VisionPrescription)
+    <t xml:space="preserve">Reference(Appointment|5.0.0|AppointmentResponse|5.0.0|CarePlan|5.0.0|Claim|5.0.0|CommunicationRequest|5.0.0|Contract|5.0.0|CoverageEligibilityRequest|5.0.0|DeviceRequest|5.0.0|EnrollmentRequest|5.0.0|ImmunizationRecommendation|5.0.0|MedicationRequest|5.0.0|NutritionOrder|5.0.0|RequestOrchestration|5.0.0|ServiceRequest|5.0.0|SupplyRequest|5.0.0|VisionPrescription|5.0.0)
 </t>
   </si>
   <si>
@@ -686,7 +686,7 @@
     <t>Precise type of clinical document.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/doc-typecodes</t>
+    <t>http://hl7.org/fhir/ValueSet/doc-typecodes|5.0.0</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -733,7 +733,7 @@
     <t>High-level kind of document at a macro level.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referenced-item-category</t>
+    <t>http://hl7.org/fhir/ValueSet/referenced-item-category|5.0.0</t>
   </si>
   <si>
     <t>Composition.category</t>
@@ -751,7 +751,7 @@
     <t>DocumentReference.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|5.0.0)
 </t>
   </si>
   <si>
@@ -785,7 +785,7 @@
     <t>DocumentReference.context</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Appointment|Encounter|EpisodeOfCare)
+    <t xml:space="preserve">Reference(Appointment|5.0.0|Encounter|5.0.0|EpisodeOfCare|5.0.0)
 </t>
   </si>
   <si>
@@ -842,7 +842,7 @@
     <t>DocumentReference.bodySite</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableReference(BodyStructure)
+    <t xml:space="preserve">CodeableReference(BodyStructure|5.0.0)
 </t>
   </si>
   <si>
@@ -855,7 +855,7 @@
     <t>SNOMED CT Body site concepts</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|5.0.0</t>
   </si>
   <si>
     <t>.targetSiteCode</t>
@@ -873,7 +873,7 @@
     <t>XDS Facility Type.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/c80-facilitycodes</t>
+    <t>http://hl7.org/fhir/ValueSet/c80-facilitycodes|5.0.0</t>
   </si>
   <si>
     <t xml:space="preserve">docRef-1
@@ -910,7 +910,7 @@
     <t>Additional details about where the content was created (e.g. clinical specialty).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes|5.0.0</t>
   </si>
   <si>
     <t xml:space="preserve">docRef-2
@@ -984,7 +984,7 @@
     <t>DocumentReference.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Device|Patient|RelatedPerson|CareTeam)
+    <t xml:space="preserve">Reference(Practitioner|5.0.0|PractitionerRole|5.0.0|Organization|5.0.0|Device|5.0.0|Patient|5.0.0|RelatedPerson|5.0.0|CareTeam|5.0.0)
 </t>
   </si>
   <si>
@@ -1106,7 +1106,7 @@
     <t>The way in which a person authenticated a document.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/composition-attestation-mode</t>
+    <t>http://hl7.org/fhir/ValueSet/composition-attestation-mode|5.0.0</t>
   </si>
   <si>
     <t>Composition.attester.mode</t>
@@ -1146,7 +1146,7 @@
     <t>DocumentReference.attester.party</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson|Practitioner|PractitionerRole|Organization)
+    <t xml:space="preserve">Reference(Patient|5.0.0|RelatedPerson|5.0.0|Practitioner|5.0.0|PractitionerRole|5.0.0|Organization|5.0.0)
 </t>
   </si>
   <si>
@@ -1177,7 +1177,7 @@
     <t>DocumentReference.custodian</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|5.0.0)
 </t>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
     <t>The type of relationship between the documents.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/document-relationship-type</t>
+    <t>http://hl7.org/fhir/ValueSet/document-relationship-type|5.0.0</t>
   </si>
   <si>
     <t>Composition.relatesTo.type</t>
@@ -1259,7 +1259,7 @@
     <t>DocumentReference.relatesTo.target</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference)
+    <t xml:space="preserve">Reference(DocumentReference|5.0.0)
 </t>
   </si>
   <si>
@@ -1328,7 +1328,7 @@
     <t>Example Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-label-examples</t>
+    <t>http://hl7.org/fhir/ValueSet/security-label-examples|5.0.0</t>
   </si>
   <si>
     <t>Bundle.meta.security</t>
@@ -2075,7 +2075,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="237.6015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
